--- a/analisis1.xlsx
+++ b/analisis1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos Octubre\Inteligencia Artificial\Ejercicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA5AC26-8D7B-4D12-95F0-333015EB2ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C0776-339E-49BA-BB5F-C672431F3C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26640" windowHeight="15090" xr2:uid="{17A37548-BFAC-405B-A1B1-1EC76C1FEFC0}"/>
   </bookViews>
@@ -35,12 +35,6 @@
     <t>DIA</t>
   </si>
   <si>
-    <t>VENTAS MES 1</t>
-  </si>
-  <si>
-    <t>VENTAS MES 2</t>
-  </si>
-  <si>
     <t>PARCIAL</t>
   </si>
   <si>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>TITULO</t>
+  </si>
+  <si>
+    <t>VM1</t>
+  </si>
+  <si>
+    <t>VM2</t>
   </si>
 </sst>
 </file>
@@ -141,8 +141,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -204,22 +204,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -540,7 +536,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,17 +551,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="L1" s="5"/>
@@ -574,500 +570,452 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>729960</v>
+      </c>
+      <c r="D2" s="7">
+        <v>410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>708290</v>
+      </c>
+      <c r="D3" s="7">
+        <v>530000</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
-        <v>729960</v>
-      </c>
-      <c r="D2" s="9">
-        <v>410000</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4" s="7">
+        <v>428375</v>
+      </c>
+      <c r="D4" s="7">
+        <v>475000</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
-        <v>708290</v>
-      </c>
-      <c r="D3" s="9">
-        <v>530000</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C5" s="7">
+        <v>428040</v>
+      </c>
+      <c r="D5" s="7">
+        <v>510000</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="9">
-        <v>428375</v>
-      </c>
-      <c r="D4" s="9">
-        <v>475000</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" s="7">
+        <v>443040</v>
+      </c>
+      <c r="D6" s="7">
+        <v>480000</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
-        <v>428040</v>
-      </c>
-      <c r="D5" s="9">
-        <v>510000</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="7">
+        <v>473375</v>
+      </c>
+      <c r="D7" s="7">
+        <v>390000</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
-        <v>443040</v>
-      </c>
-      <c r="D6" s="9">
-        <v>480000</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8" s="7">
+        <v>503710</v>
+      </c>
+      <c r="D8" s="7">
+        <v>600000</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9">
-        <v>473375</v>
-      </c>
-      <c r="D7" s="9">
-        <v>390000</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" s="7">
+        <v>567875</v>
+      </c>
+      <c r="D9" s="7">
+        <v>550000</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
-        <v>503710</v>
-      </c>
-      <c r="D8" s="9">
-        <v>600000</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" s="7">
+        <v>518375</v>
+      </c>
+      <c r="D10" s="7">
+        <v>589000</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9">
-        <v>567875</v>
-      </c>
-      <c r="D9" s="9">
-        <v>550000</v>
-      </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C11" s="7">
+        <v>533375</v>
+      </c>
+      <c r="D11" s="7">
+        <v>610000</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9">
-        <v>518375</v>
-      </c>
-      <c r="D10" s="9">
-        <v>589000</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C12" s="7">
+        <v>687790</v>
+      </c>
+      <c r="D12" s="7">
+        <v>580000</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9">
-        <v>533375</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C13" s="7">
+        <v>578710</v>
+      </c>
+      <c r="D13" s="7">
+        <v>590000</v>
+      </c>
+      <c r="M13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="7">
+        <v>758290</v>
+      </c>
+      <c r="D14" s="7">
         <v>610000</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="M14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
-        <v>687790</v>
-      </c>
-      <c r="D12" s="9">
-        <v>580000</v>
-      </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7">
+        <v>702790</v>
+      </c>
+      <c r="D15" s="7">
+        <v>586000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="C13" s="9">
-        <v>578710</v>
-      </c>
-      <c r="D13" s="9">
-        <v>590000</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="7">
+        <v>593040</v>
+      </c>
+      <c r="D16" s="7">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="C14" s="9">
-        <v>758290</v>
-      </c>
-      <c r="D14" s="9">
-        <v>610000</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>654045</v>
+      </c>
+      <c r="D17" s="7">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="7">
+        <v>715050</v>
+      </c>
+      <c r="D18" s="7">
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="7">
+        <v>807450</v>
+      </c>
+      <c r="D19" s="7">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7">
+        <v>653040</v>
+      </c>
+      <c r="D20" s="7">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7">
+        <v>683375</v>
+      </c>
+      <c r="D21" s="7">
+        <v>745000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="7">
+        <v>799210</v>
+      </c>
+      <c r="D22" s="7">
+        <v>785000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>790050</v>
+      </c>
+      <c r="D23" s="7">
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9">
-        <v>702790</v>
-      </c>
-      <c r="D15" s="9">
-        <v>586000</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C24" s="7">
+        <v>943930</v>
+      </c>
+      <c r="D24" s="7">
+        <v>820000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7">
+        <v>867875</v>
+      </c>
+      <c r="D25" s="7">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7">
+        <v>852705</v>
+      </c>
+      <c r="D26" s="7">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="7">
+        <v>902875</v>
+      </c>
+      <c r="D27" s="7">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7">
+        <v>788375</v>
+      </c>
+      <c r="D28" s="7">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7">
+        <v>818710</v>
+      </c>
+      <c r="D29" s="7">
+        <v>870000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="C16" s="9">
-        <v>593040</v>
-      </c>
-      <c r="D16" s="9">
-        <v>625000</v>
-      </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="9">
-        <v>654045</v>
-      </c>
-      <c r="D17" s="9">
-        <v>640000</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="9">
-        <v>715050</v>
-      </c>
-      <c r="D18" s="9">
-        <v>780000</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="9">
-        <v>807450</v>
-      </c>
-      <c r="D19" s="9">
-        <v>950000</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="9">
-        <v>653040</v>
-      </c>
-      <c r="D20" s="9">
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="9">
-        <v>683375</v>
-      </c>
-      <c r="D21" s="9">
-        <v>745000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="9">
-        <v>799210</v>
-      </c>
-      <c r="D22" s="9">
-        <v>785000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="9">
-        <v>790050</v>
-      </c>
-      <c r="D23" s="9">
-        <v>810000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9">
-        <v>943930</v>
-      </c>
-      <c r="D24" s="9">
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="9">
-        <v>867875</v>
-      </c>
-      <c r="D25" s="9">
-        <v>690000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9">
-        <v>852705</v>
-      </c>
-      <c r="D26" s="9">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="9">
-        <v>902875</v>
-      </c>
-      <c r="D27" s="9">
-        <v>825000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9">
-        <v>788375</v>
-      </c>
-      <c r="D28" s="9">
-        <v>830000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7">
+        <v>803040</v>
+      </c>
+      <c r="D30" s="7">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9">
-        <v>818710</v>
-      </c>
-      <c r="D29" s="9">
-        <v>870000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="9">
-        <v>803040</v>
-      </c>
-      <c r="D30" s="9">
-        <v>910000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="C31" s="7">
         <v>879380</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="7">
         <v>920000</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">

--- a/analisis1.xlsx
+++ b/analisis1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos Octubre\Inteligencia Artificial\Ejercicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32C0776-339E-49BA-BB5F-C672431F3C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4AD77-4374-4213-A3A2-0EA4EBF44E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26640" windowHeight="15090" xr2:uid="{17A37548-BFAC-405B-A1B1-1EC76C1FEFC0}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>DIA</t>
   </si>
   <si>
-    <t>PARCIAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">PFBCOLOM  </t>
   </si>
   <si>
@@ -119,12 +116,6 @@
     <t xml:space="preserve">ENKA      </t>
   </si>
   <si>
-    <t xml:space="preserve">ETTB       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETB E      </t>
-  </si>
-  <si>
     <t>TITULO</t>
   </si>
   <si>
@@ -132,6 +123,9 @@
   </si>
   <si>
     <t>VM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETB </t>
   </si>
 </sst>
 </file>
@@ -533,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2450ED8F-20E5-430A-9C1E-033A4D0EA9CD}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,37 +538,36 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>729960</v>
@@ -583,12 +576,12 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7">
         <v>708290</v>
@@ -596,15 +589,15 @@
       <c r="D3" s="7">
         <v>530000</v>
       </c>
+      <c r="K3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7">
         <v>428375</v>
@@ -612,15 +605,15 @@
       <c r="D4" s="7">
         <v>475000</v>
       </c>
+      <c r="K4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
         <v>428040</v>
@@ -628,15 +621,15 @@
       <c r="D5" s="7">
         <v>510000</v>
       </c>
+      <c r="K5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>443040</v>
@@ -644,15 +637,15 @@
       <c r="D6" s="7">
         <v>480000</v>
       </c>
+      <c r="K6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7">
         <v>473375</v>
@@ -660,15 +653,15 @@
       <c r="D7" s="7">
         <v>390000</v>
       </c>
+      <c r="K7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>503710</v>
@@ -676,15 +669,15 @@
       <c r="D8" s="7">
         <v>600000</v>
       </c>
+      <c r="K8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>567875</v>
@@ -692,15 +685,15 @@
       <c r="D9" s="7">
         <v>550000</v>
       </c>
+      <c r="K9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="7">
         <v>518375</v>
@@ -708,15 +701,15 @@
       <c r="D10" s="7">
         <v>589000</v>
       </c>
+      <c r="K10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="7">
         <v>533375</v>
@@ -724,15 +717,15 @@
       <c r="D11" s="7">
         <v>610000</v>
       </c>
+      <c r="K11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="7">
         <v>687790</v>
@@ -740,15 +733,15 @@
       <c r="D12" s="7">
         <v>580000</v>
       </c>
+      <c r="K12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="7">
         <v>578710</v>
@@ -756,15 +749,15 @@
       <c r="D13" s="7">
         <v>590000</v>
       </c>
+      <c r="K13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7">
         <v>758290</v>
@@ -772,15 +765,15 @@
       <c r="D14" s="7">
         <v>610000</v>
       </c>
+      <c r="K14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7">
         <v>702790</v>
@@ -789,12 +782,12 @@
         <v>586000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>593040</v>
@@ -808,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="7">
         <v>654045</v>
@@ -822,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7">
         <v>715050</v>
@@ -836,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
         <v>807450</v>
@@ -850,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
         <v>653040</v>
@@ -864,7 +857,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="7">
         <v>683375</v>
@@ -878,7 +871,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
         <v>799210</v>
@@ -892,7 +885,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>790050</v>
@@ -906,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>943930</v>
@@ -920,7 +913,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="7">
         <v>867875</v>
@@ -934,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="7">
         <v>852705</v>
@@ -948,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="7">
         <v>902875</v>
@@ -962,7 +955,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <v>788375</v>
@@ -976,7 +969,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="7">
         <v>818710</v>
@@ -990,7 +983,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7">
         <v>803040</v>
@@ -1004,7 +997,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="7">
         <v>879380</v>
@@ -1013,40 +1006,13 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D50" s="3">
-        <f>AVERAGE(A50:C50)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="4">
-        <f>C50*40%</f>
-        <v>1.8</v>
-      </c>
-      <c r="D52" s="4" t="e">
-        <f>#REF!*0.1</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E52" s="4">
-        <f>E50*0.1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F52" s="4" t="e">
-        <f>SUM(C52:D52)</f>
-        <v>#REF!</v>
-      </c>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="2"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
